--- a/Data/Running.xlsx
+++ b/Data/Running.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/paulccannon_byui_edu/Documents/Math221inR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C11223-4A71-4E23-814C-AF9F43AA302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{98C11223-4A71-4E23-814C-AF9F43AA302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10599455-DD04-47A0-92E5-55E507F96C36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8986555C-5960-4CD3-93F6-63E526DBA268}"/>
   </bookViews>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Time to run 1 mile in min</t>
+    <t>Diet</t>
   </si>
   <si>
-    <t>Diet</t>
+    <t>minutes_to_run_mile</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218F105F-EC8B-41E0-AEF6-AFAAAA4CB514}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -408,10 +410,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
